--- a/data/stat/oja_per_education.xlsx
+++ b/data/stat/oja_per_education.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luiss-my.sharepoint.com/personal/fsalate_luiss_it/Documents/DATA LAB/WIH/02 analisi/data/stat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luiss-my.sharepoint.com/personal/fsalate_luiss_it/Documents/DATA LAB/WIH/WIH/data/stat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{896F1EA5-A08C-4D93-802E-8E66EC47EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8F0C45F-C28D-43FE-8BFD-21F8AA4579F1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{896F1EA5-A08C-4D93-802E-8E66EC47EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46F33627-243D-48C3-A868-CC330C93B6D2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,11 +186,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -199,10 +200,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +556,7 @@
     <col min="4" max="4" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,15 +570,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="3">
         <v>8160886</v>
       </c>
       <c r="D2" s="3">
         <v>429546</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -589,7 +593,7 @@
         <v>729403</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -603,7 +607,7 @@
         <v>976981</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -617,7 +621,7 @@
         <v>4091022</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -631,7 +635,7 @@
         <v>4472483</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -645,7 +649,7 @@
         <v>13418351</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -659,7 +663,7 @@
         <v>1688541</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -673,7 +677,7 @@
         <v>1138682</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
